--- a/ELC yearbook choice.xlsx
+++ b/ELC yearbook choice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="94">
   <si>
     <t>Student Id</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>invalid</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -644,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -992,6 +998,32 @@
       </c>
       <c r="H13" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>146490</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45941.346076388887</v>
       </c>
     </row>
   </sheetData>

--- a/ELC yearbook choice.xlsx
+++ b/ELC yearbook choice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="94">
   <si>
     <t>Student Id</t>
   </si>
@@ -653,7 +653,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -725,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -768,158 +768,158 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>175738</v>
+        <v>168738</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>10179</v>
+        <v>9756</v>
       </c>
       <c r="H5" s="1">
-        <v>45937.837893518517</v>
+        <v>45937.055185185185</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>175738</v>
+        <v>184422</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>10180</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45937.83829861111</v>
+        <v>10408</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>168738</v>
+        <v>172144</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>9756</v>
-      </c>
-      <c r="H7" s="1">
-        <v>45937.055185185185</v>
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>168738</v>
+        <v>172144</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>9756</v>
-      </c>
-      <c r="H8" s="1">
-        <v>45937.055185185185</v>
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>184422</v>
+        <v>175738</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>10408</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>91</v>
+        <v>10179</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45937.837893518517</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>183788</v>
+        <v>175738</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>10736</v>
+        <v>10180</v>
       </c>
       <c r="H10" s="1">
-        <v>45941.346053240741</v>
+        <v>45937.83829861111</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -933,7 +933,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -942,21 +942,21 @@
         <v>35</v>
       </c>
       <c r="G11">
-        <v>10737</v>
+        <v>10736</v>
       </c>
       <c r="H11" s="1">
-        <v>45941.346076388887</v>
+        <v>45941.346053240741</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>91</v>
+      <c r="A12">
+        <v>183788</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -965,39 +965,39 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>10737</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45941.346076388887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>10085</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <v>45937.678495370368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>172144</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8">
